--- a/results/birth/SEED_2024/result.xlsx
+++ b/results/birth/SEED_2024/result.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,18 @@
       <c r="AH1" s="1" t="n"/>
       <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>BOUNDARY</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -723,6 +735,46 @@
           <t>0.20</t>
         </is>
       </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -848,6 +900,30 @@
       </c>
       <c r="AJ4" t="n">
         <v>2006.305775035222</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>432.7917705790202</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>435.5175196075439</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>439.2190765889486</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>442.2330904579163</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>447.3975617790222</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>462.42976770401</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>474.4381432723999</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>598.2050880622863</v>
       </c>
     </row>
     <row r="5">
@@ -959,6 +1035,30 @@
       <c r="AJ5" t="n">
         <v>2111.421142464877</v>
       </c>
+      <c r="AK5" t="n">
+        <v>540.9919002676994</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>544.8139485716558</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>548.5361284987341</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>549.0153975015104</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>555.8957974614127</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>581.4198112572533</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>596.6181559478788</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>783.0152101056404</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -974,13 +1074,13 @@
         <v>0.9991785643054988</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9990279544909481</v>
+        <v>0.9990279544909482</v>
       </c>
       <c r="F6" t="n">
         <v>0.9989872607579635</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9989547205895875</v>
+        <v>0.9989547205895872</v>
       </c>
       <c r="H6" t="n">
         <v>0.9988773330946895</v>
@@ -989,7 +1089,7 @@
         <v>0.9988707575252089</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9986205298072385</v>
+        <v>0.9986205298072383</v>
       </c>
       <c r="K6" t="n">
         <v>0.9982866498421299</v>
@@ -1007,13 +1107,13 @@
         <v>0.9989789657805583</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9989108511353102</v>
+        <v>0.99891085113531</v>
       </c>
       <c r="Q6" t="n">
         <v>0.998889284180713</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9987853512363759</v>
+        <v>0.9987853512363761</v>
       </c>
       <c r="S6" t="n">
         <v>0.9985676974208419</v>
@@ -1025,7 +1125,7 @@
         <v>0.9988869483993893</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9986851340565561</v>
+        <v>0.9986851340565563</v>
       </c>
       <c r="W6" t="n">
         <v>0.9984778857245163</v>
@@ -1049,10 +1149,10 @@
         <v>0.9988116712543226</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.998509699194353</v>
+        <v>0.9985096991943528</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.998180195579048</v>
+        <v>0.9981801955790478</v>
       </c>
       <c r="AF6" t="n">
         <v>0.9977733346829958</v>
@@ -1061,13 +1161,37 @@
         <v>0.9973680418044337</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.9959247254606897</v>
+        <v>0.9959247254606894</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.9941944423889509</v>
+        <v>0.9941944423889512</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.9854204732421075</v>
+        <v>0.9854204732421074</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.9990363688847373</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.9990245789996384</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.9990095397240493</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.9990069293620361</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9989863542368618</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.9988941329854391</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.9988331431111914</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.9980908408034129</v>
       </c>
     </row>
     <row r="7">
@@ -1182,6 +1306,30 @@
       </c>
       <c r="AJ7" t="n">
         <v>2127.442095015844</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>399.0320683479309</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>415.4160107549031</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>405.1621262041728</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>417.024144077301</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>432.9904280662537</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>444.4669622866313</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>544.9597953160604</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>700.3300581804912</v>
       </c>
     </row>
     <row r="8">
@@ -1293,6 +1441,30 @@
       <c r="AJ8" t="n">
         <v>2174.945103245809</v>
       </c>
+      <c r="AK8" t="n">
+        <v>520.4198570710514</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>540.0463791846861</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>525.0756877510274</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>538.6864789263687</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>549.551265392308</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>568.514633579456</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>678.2156310702549</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>863.5437383340842</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -1305,19 +1477,19 @@
         <v>0.9992129541997011</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9992212099257753</v>
+        <v>0.9992212099257751</v>
       </c>
       <c r="E9" t="n">
         <v>0.9992184401743598</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9992193191794017</v>
+        <v>0.9992193191794019</v>
       </c>
       <c r="G9" t="n">
         <v>0.9992150355084065</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9992055156760516</v>
+        <v>0.9992055156760514</v>
       </c>
       <c r="I9" t="n">
         <v>0.9991907719299289</v>
@@ -1326,7 +1498,7 @@
         <v>0.9991286399731376</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9990300844331534</v>
+        <v>0.9990300844331532</v>
       </c>
       <c r="L9" t="n">
         <v>0.998187199266221</v>
@@ -1335,7 +1507,7 @@
         <v>0.9992184401743598</v>
       </c>
       <c r="N9" t="n">
-        <v>0.99921911822608</v>
+        <v>0.9992191182260798</v>
       </c>
       <c r="O9" t="n">
         <v>0.9992163424625041</v>
@@ -1362,7 +1534,7 @@
         <v>0.9988335447018136</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9985834370410005</v>
+        <v>0.9985834370410003</v>
       </c>
       <c r="X9" t="n">
         <v>0.998290484790073</v>
@@ -1380,7 +1552,7 @@
         <v>0.9857287465863241</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.999019351066644</v>
+        <v>0.9990193510666437</v>
       </c>
       <c r="AD9" t="n">
         <v>0.9987769520628255</v>
@@ -1389,7 +1561,7 @@
         <v>0.9984820429255471</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.9981313886796569</v>
+        <v>0.9981313886796571</v>
       </c>
       <c r="AG9" t="n">
         <v>0.9977178645973344</v>
@@ -1401,7 +1573,31 @@
         <v>0.9945908143424768</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.9831183648888883</v>
+        <v>0.9831183648888884</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.9992002936530356</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.9991314404105985</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9991916481528849</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.9991407673813675</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9991265007440792</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.9990315614699359</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.9984186432039401</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.9973475548268412</v>
       </c>
     </row>
     <row r="10">
@@ -1516,6 +1712,30 @@
       </c>
       <c r="AJ10" t="n">
         <v>1835.985421164831</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>283.2202223014831</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>296.9328125190735</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>305.4126160240173</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>306.4555748875936</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>314.624032535553</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>341.1765812110901</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>410.6481328964234</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>666.5929933834076</v>
       </c>
     </row>
     <row r="11">
@@ -1627,6 +1847,30 @@
       <c r="AJ11" t="n">
         <v>1896.63630562973</v>
       </c>
+      <c r="AK11" t="n">
+        <v>402.7637699362363</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>418.2314816654203</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>416.5085486369327</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>421.971121361415</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>429.1832709963401</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>459.8072883257767</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>517.8801462060561</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>840.7632142560259</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1636,7 +1880,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9993987822419697</v>
+        <v>0.9993987822419694</v>
       </c>
       <c r="D12" t="n">
         <v>0.9994421461805216</v>
@@ -1645,7 +1889,7 @@
         <v>0.9991840303765047</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9991445587623867</v>
+        <v>0.9991445587623865</v>
       </c>
       <c r="G12" t="n">
         <v>0.9990941340105669</v>
@@ -1654,10 +1898,10 @@
         <v>0.9990334926245222</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9989608871900817</v>
+        <v>0.9989608871900815</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9987264146075511</v>
+        <v>0.9987264146075512</v>
       </c>
       <c r="K12" t="n">
         <v>0.9984093079454088</v>
@@ -1669,10 +1913,10 @@
         <v>0.999377476107814</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9993475847988255</v>
+        <v>0.9993475847988257</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9993115380720902</v>
+        <v>0.9993115380720904</v>
       </c>
       <c r="P12" t="n">
         <v>0.9992658586118608</v>
@@ -1684,31 +1928,31 @@
         <v>0.9990636325588755</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9988008491396837</v>
+        <v>0.9988008491396839</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9979882014160217</v>
+        <v>0.9979882014160215</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9992639406706724</v>
+        <v>0.9992639406706725</v>
       </c>
       <c r="V12" t="n">
         <v>0.9990949443835955</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9988905431246289</v>
+        <v>0.9988905431246288</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9986497778124407</v>
+        <v>0.9986497778124405</v>
       </c>
       <c r="Y12" t="n">
         <v>0.9983689171074933</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.9974806467336585</v>
+        <v>0.9974806467336588</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9963054404250443</v>
+        <v>0.9963054404250445</v>
       </c>
       <c r="AB12" t="n">
         <v>0.9897446346860962</v>
@@ -1717,10 +1961,10 @@
         <v>0.9992148361106116</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.9989793806678309</v>
+        <v>0.9989793806678311</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.9986903580994808</v>
+        <v>0.998690358099481</v>
       </c>
       <c r="AF12" t="n">
         <v>0.9983460203030948</v>
@@ -1737,15 +1981,40 @@
       <c r="AJ12" t="n">
         <v>0.9856761216772442</v>
       </c>
+      <c r="AK12" t="n">
+        <v>0.9993913910429063</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.9993391793864905</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.999351846827865</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.99932198852751</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.999297560386176</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.9991944463183169</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.998978395251458</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.9973350900343017</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
